--- a/src/main/webapp/file/template/StudentTemplate.xlsx
+++ b/src/main/webapp/file/template/StudentTemplate.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313C27D0-37C2-424E-9403-6F4B39844B23}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA3BAFA-081B-45A9-A00D-88DF61A82505}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="0" windowWidth="19230" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1335" yWindow="930" windowWidth="16620" windowHeight="9690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,18 @@
   </si>
   <si>
     <t>身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘焦焦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thisistjl@Outlook.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140402199606291666</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -46,7 +58,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +74,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -79,14 +102,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -364,34 +392,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1514010122</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>176089323456</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{686B6FA4-4918-4AB6-B858-7BD654349E05}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <ignoredErrors>
+    <ignoredError sqref="E2" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>